--- a/data/georgia_census/kakheti/lagodexi/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/lagodexi/healthcare_staff.xlsx
@@ -1370,13 +1370,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BCB738B-542F-494C-A0C6-ABE24A124915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA481D1-56E3-40BB-B475-2B91036FE81D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA2ABCA-03D7-4D08-9B7B-8A563FCA0828}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51B874A-D8F0-4F0A-81EA-80677DF63A1B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5983FA3-0E98-4449-A405-1D84003AB02F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2A3A845-D823-4B69-B0FD-AB06330F319E}"/>
 </file>